--- a/ACG 2071 ~ Managerial Accounting/Templates.xlsx
+++ b/ACG 2071 ~ Managerial Accounting/Templates.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guslipkin/Documents/Summer2021/ACG 2071 ~ Managerial Accounting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2D474-77A4-984D-9775-C45FA05F1313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6433F1B-9C46-1642-8103-5A7A52FC97BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{177581F7-CDD8-3148-A968-01A135CDA552}"/>
+    <workbookView xWindow="51200" yWindow="-2600" windowWidth="21600" windowHeight="37900" activeTab="4" xr2:uid="{177581F7-CDD8-3148-A968-01A135CDA552}"/>
   </bookViews>
   <sheets>
     <sheet name="20Y6" sheetId="1" r:id="rId1"/>
     <sheet name="Hotel" sheetId="2" r:id="rId2"/>
     <sheet name="Manufactured" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>Inventories</t>
   </si>
@@ -250,13 +251,56 @@
   </si>
   <si>
     <t>Statement of Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>1. Prepare an annual income statement for the iLeather product, including supporting calculations, from the information provided.</t>
+  </si>
+  <si>
+    <t>Technology Accessories Inc.</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>For the year ended Decemeber 31, 20Y3</t>
+  </si>
+  <si>
+    <t>Pariculars</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Sales revenue ($40 * 460,000 units) (See w.2)</t>
+  </si>
+  <si>
+    <t>Cost of goods sold ($25.90 * 460,000 units) (See w.5)</t>
+  </si>
+  <si>
+    <t>Salespersons commission (20% * Sales revenue) (See w.6)</t>
+  </si>
+  <si>
+    <t>Development of marketing and advertising materials</t>
+  </si>
+  <si>
+    <t>Addition iLeather promotion expenses</t>
+  </si>
+  <si>
+    <t>Total sellng expenses</t>
+  </si>
+  <si>
+    <t>Operating income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +346,41 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="doubleAccounting"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,10 +399,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -338,8 +418,24 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1440,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D9BDFB-3D07-BF4F-8225-971F8E02E06E}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1639,4 +1735,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AB20DC-B3EF-2345-A53D-FE8540C83722}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
+        <f>40*500000</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="18">
+        <f>-25.9*460000</f>
+        <v>-11914000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15">
+        <f>SUM(C7:C8)</f>
+        <v>8086000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="15">
+        <f>-20%*C7</f>
+        <v>-4000000</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="15">
+        <v>779000</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="18">
+        <v>-1400000</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="18">
+        <f>SUM(B11:B13)</f>
+        <v>-4621000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20">
+        <f>SUM(C9:C14)</f>
+        <v>3465000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ACG 2071 ~ Managerial Accounting/Templates.xlsx
+++ b/ACG 2071 ~ Managerial Accounting/Templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guslipkin/Documents/Summer2021/ACG 2071 ~ Managerial Accounting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6433F1B-9C46-1642-8103-5A7A52FC97BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB97011C-DC91-904B-9112-720762121933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="-2600" windowWidth="21600" windowHeight="37900" activeTab="4" xr2:uid="{177581F7-CDD8-3148-A968-01A135CDA552}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{177581F7-CDD8-3148-A968-01A135CDA552}"/>
   </bookViews>
   <sheets>
     <sheet name="20Y6" sheetId="1" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E263B-EC76-2E4E-BAB3-234537E4F79F}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,17 +783,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>77350</v>
+        <v>364890</v>
       </c>
       <c r="C2" s="9">
-        <v>95550</v>
+        <v>452460</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="8">
         <f xml:space="preserve"> B3</f>
-        <v>109200</v>
+        <v>656800</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -801,10 +801,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>109200</v>
+        <v>656800</v>
       </c>
       <c r="C3" s="9">
-        <v>96200</v>
+        <v>615350</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>22</v>
@@ -815,17 +815,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>113750</v>
+        <v>631260</v>
       </c>
       <c r="C4" s="9">
-        <v>100100</v>
+        <v>628920</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1">
         <f xml:space="preserve"> B14</f>
-        <v>77350</v>
+        <v>238450</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
       </c>
       <c r="F5" s="2">
         <f xml:space="preserve"> B13</f>
-        <v>123500</v>
+        <v>683210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
       </c>
       <c r="F6" s="1">
         <f xml:space="preserve"> SUM(F4:F5)</f>
-        <v>200850</v>
+        <v>921660</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -855,14 +855,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="11">
-        <v>68250</v>
+        <v>307220</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="3">
         <f xml:space="preserve"> C2</f>
-        <v>95550</v>
+        <v>452460</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -870,14 +870,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="12">
-        <v>22750</v>
+        <v>43440</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="1">
         <f xml:space="preserve"> F6 - F7</f>
-        <v>105300</v>
+        <v>469200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -885,14 +885,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="12">
-        <v>14560</v>
+        <v>58370</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="1">
         <f xml:space="preserve"> B10</f>
-        <v>186550</v>
+        <v>696790</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12">
-        <v>186550</v>
+        <v>696790</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>29</v>
@@ -911,14 +911,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="12">
-        <v>5850</v>
+        <v>23080</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="1">
         <f xml:space="preserve"> B12</f>
-        <v>23660</v>
+        <v>81440</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -926,14 +926,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>23660</v>
+        <v>81440</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1">
         <f xml:space="preserve"> B9</f>
-        <v>14560</v>
+        <v>58370</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -941,14 +941,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="12">
-        <v>123500</v>
+        <v>683210</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1">
         <f xml:space="preserve"> B11</f>
-        <v>5850</v>
+        <v>23080</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -956,14 +956,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="12">
-        <v>77350</v>
+        <v>238450</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="1">
         <f xml:space="preserve"> B15</f>
-        <v>4095</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -971,14 +971,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="12">
-        <v>4095</v>
+        <v>19000</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1">
         <f xml:space="preserve"> B17</f>
-        <v>6825</v>
+        <v>32120</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -986,14 +986,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="12">
-        <v>13650</v>
+        <v>39360</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="1">
         <f xml:space="preserve"> B20</f>
-        <v>3250</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1001,14 +1001,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="12">
-        <v>6825</v>
+        <v>32120</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="2">
         <f xml:space="preserve"> B21</f>
-        <v>4420</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1016,14 +1016,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="12">
-        <v>864500</v>
+        <v>3198890</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="2">
         <f xml:space="preserve"> SUM(F11:F17)</f>
-        <v>62660</v>
+        <v>239800</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1031,14 +1031,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="12">
-        <v>136500</v>
+        <v>392740</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="2">
         <f xml:space="preserve"> G18 + G9 + G8</f>
-        <v>354510</v>
+        <v>1405790</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1046,14 +1046,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="12">
-        <v>3250</v>
+        <v>15840</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="1">
         <f xml:space="preserve"> H2 + H19</f>
-        <v>463710</v>
+        <v>2062590</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1061,14 +1061,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="12">
-        <v>4420</v>
+        <v>9950</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="3">
         <f xml:space="preserve"> C3</f>
-        <v>96200</v>
+        <v>615350</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H22" s="4">
         <f xml:space="preserve"> H20 - H21</f>
-        <v>367510</v>
+        <v>1447240</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H25" s="1">
         <f xml:space="preserve"> B18</f>
-        <v>864500</v>
+        <v>3198890</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G27" s="8">
         <f xml:space="preserve"> B4</f>
-        <v>113750</v>
+        <v>631260</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="G28" s="2">
         <f xml:space="preserve"> H22</f>
-        <v>367510</v>
+        <v>1447240</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="G29" s="8">
         <f xml:space="preserve"> SUM(G27:G28)</f>
-        <v>481260</v>
+        <v>2078500</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G30" s="3">
         <f xml:space="preserve"> C4</f>
-        <v>100100</v>
+        <v>628920</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="H31" s="8">
         <f xml:space="preserve"> G29 - G30</f>
-        <v>381160</v>
+        <v>1449580</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H32" s="1">
         <f xml:space="preserve"> H25 - H31</f>
-        <v>483340</v>
+        <v>1749310</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F35" s="1">
         <f xml:space="preserve"> B14</f>
-        <v>77350</v>
+        <v>238450</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="F36" s="1">
         <f xml:space="preserve"> B8</f>
-        <v>22750</v>
+        <v>43440</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.2">
@@ -1187,11 +1187,11 @@
       </c>
       <c r="F37" s="2">
         <f xml:space="preserve"> B16</f>
-        <v>13650</v>
+        <v>39360</v>
       </c>
       <c r="G37" s="1">
         <f xml:space="preserve"> SUM(F35:F37)</f>
-        <v>113750</v>
+        <v>321250</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F39" s="13">
         <f xml:space="preserve"> B7</f>
-        <v>68250</v>
+        <v>307220</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.2">
@@ -1214,11 +1214,11 @@
       </c>
       <c r="F40" s="2">
         <f xml:space="preserve"> B19</f>
-        <v>136500</v>
+        <v>392740</v>
       </c>
       <c r="G40" s="2">
         <f xml:space="preserve"> SUM(F39:F40)</f>
-        <v>204750</v>
+        <v>699960</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H41" s="2">
         <f xml:space="preserve"> G37 + G40</f>
-        <v>318500</v>
+        <v>1021210</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="H42" s="4">
         <f xml:space="preserve"> H32 - H41</f>
-        <v>164840</v>
+        <v>728100</v>
       </c>
     </row>
   </sheetData>
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AB20DC-B3EF-2345-A53D-FE8540C83722}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
